--- a/darkworld/model/data/floor builder Dungeon World 2.xlsx
+++ b/darkworld/model/data/floor builder Dungeon World 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\DarkWorld\darkworld\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D7836-4FCA-4F14-B413-7E585441FDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5D7D6-0407-4B50-B800-C9D19EFC35A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12330" yWindow="3990" windowWidth="25065" windowHeight="15840" tabRatio="904" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22290" yWindow="2010" windowWidth="25065" windowHeight="15840" tabRatio="904" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="49" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="68">
   <si>
     <t>width</t>
   </si>
@@ -323,244 +323,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>'::::::::::::::::::::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':                  :'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':::::::::N::::::::::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':z:B    : :     B:z:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'::)    B: :B     (::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':B      (D)       B:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':   /\        /\   :'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':   ()        ()   :'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>';                  :'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>';:\      B       /::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>';;:     /:\     /:):'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':j:    B:+:B    ; ?:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':::     : :     (:\:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'::)     (D)      (::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':B      B B       B:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'::\   /:: ::\    /::'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>':z:B =:z:j:z:   B:z:'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -616,6 +378,81 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>####################</t>
+  </si>
+  <si>
+    <t>#B    b#  %#   #u #</t>
+  </si>
+  <si>
+    <t>#      D   #   #  #</t>
+  </si>
+  <si>
+    <t>#     b#   #   @  #</t>
+  </si>
+  <si>
+    <t>#@###  #   @   ##E#</t>
+  </si>
+  <si>
+    <t>#  K#  #  ##    #  #</t>
+  </si>
+  <si>
+    <t>#   #  @  #   B #Q #</t>
+  </si>
+  <si>
+    <t>#   #E#####  ## ## #</t>
+  </si>
+  <si>
+    <t>#   #    K#  #     #</t>
+  </si>
+  <si>
+    <t>#   D     #  #     #</t>
+  </si>
+  <si>
+    <t>#   #    q#  #    b#</t>
+  </si>
+  <si>
+    <t>#   ##E####  #######</t>
+  </si>
+  <si>
+    <t>#   #Q  #         q#</t>
+  </si>
+  <si>
+    <t>#A B#   #          #</t>
+  </si>
+  <si>
+    <t>#####   #########  #</t>
+  </si>
+  <si>
+    <t>#Q  #   #q     b#  #</t>
+  </si>
+  <si>
+    <t>#   D   D   k   #  #</t>
+  </si>
+  <si>
+    <t>#   #   #       D  #</t>
+  </si>
+  <si>
+    <t>#   #  K#B    Q #  #</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -770,7 +607,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -3016,12 +2867,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="35" priority="2">
+    <cfRule type="expression" dxfId="37" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3035,7 +2886,7 @@
   <dimension ref="A1:AF30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T20" sqref="A1:T20"/>
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,91 +2900,91 @@
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="str">
         <f>MID($AA1,COLUMN()+1,1)</f>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="B1" s="5" t="str">
         <f t="shared" ref="B1:T14" si="0">MID($AA1,COLUMN()+1,1)</f>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="C1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="D1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="E1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="F1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="G1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="H1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="I1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="J1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>N</v>
+        <v>#</v>
       </c>
       <c r="K1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="L1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="M1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="N1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="O1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="P1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="Q1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="R1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="S1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="T1" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U1" s="5" t="str">
         <f t="shared" ref="U1:Y10" si="1">MID($AA1,COLUMN()+1,1)</f>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V1" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W1" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3148,7 +2999,7 @@
         <v/>
       </c>
       <c r="AA1" s="13" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="13" t="s">
         <v>5</v>
@@ -3161,19 +3012,19 @@
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="str">
         <f t="shared" ref="A2:P20" si="2">MID($AA2,COLUMN()+1,1)</f>
-        <v>:</v>
+        <v>B</v>
       </c>
       <c r="B2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>z</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="E2" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3181,11 +3032,11 @@
       </c>
       <c r="F2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>b</v>
       </c>
       <c r="G2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3193,15 +3044,15 @@
       </c>
       <c r="I2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>%</v>
       </c>
       <c r="K2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="L2" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3217,35 +3068,35 @@
       </c>
       <c r="O2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="P2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>u</v>
       </c>
       <c r="Q2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="S2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>z</v>
+        <v/>
       </c>
       <c r="T2" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V2" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W2" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3260,7 +3111,7 @@
         <v/>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="AB2" s="13" t="s">
         <v>6</v>
@@ -3273,15 +3124,15 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3297,15 +3148,15 @@
       </c>
       <c r="G3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3313,11 +3164,11 @@
       </c>
       <c r="K3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="L3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3329,7 +3180,7 @@
       </c>
       <c r="O3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="P3" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3341,23 +3192,23 @@
       </c>
       <c r="R3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v>#</v>
       </c>
       <c r="S3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="T3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V3" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W3" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3372,7 +3223,7 @@
         <v/>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="13" t="s">
         <v>7</v>
@@ -3385,11 +3236,11 @@
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3405,11 +3256,11 @@
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>b</v>
       </c>
       <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3417,15 +3268,15 @@
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v>#</v>
       </c>
       <c r="L4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3441,7 +3292,7 @@
       </c>
       <c r="O4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>@</v>
       </c>
       <c r="P4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3453,23 +3304,23 @@
       </c>
       <c r="R4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="S4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v/>
       </c>
       <c r="T4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V4" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3484,7 +3335,7 @@
         <v/>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AB4" s="13" t="s">
         <v>8</v>
@@ -3497,19 +3348,19 @@
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>@</v>
       </c>
       <c r="B5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3521,7 +3372,7 @@
       </c>
       <c r="G5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3537,7 +3388,7 @@
       </c>
       <c r="K5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>@</v>
       </c>
       <c r="L5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3553,35 +3404,35 @@
       </c>
       <c r="O5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="P5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>E</v>
       </c>
       <c r="R5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="S5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="T5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3596,7 +3447,7 @@
         <v/>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="AB5" s="13" t="s">
         <v>9</v>
@@ -3609,7 +3460,7 @@
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3617,23 +3468,23 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>K</v>
       </c>
       <c r="D6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3645,11 +3496,11 @@
       </c>
       <c r="J6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="K6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="L6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3665,11 +3516,11 @@
       </c>
       <c r="O6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v>#</v>
       </c>
       <c r="Q6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3681,19 +3532,19 @@
       </c>
       <c r="S6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V6" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3708,7 +3559,7 @@
         <v/>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="AB6" s="13" t="s">
         <v>10</v>
@@ -3721,7 +3572,7 @@
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3733,19 +3584,19 @@
       </c>
       <c r="D7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>@</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3757,7 +3608,7 @@
       </c>
       <c r="J7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="K7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3773,19 +3624,19 @@
       </c>
       <c r="N7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>B</v>
       </c>
       <c r="O7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v>#</v>
       </c>
       <c r="Q7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Q</v>
       </c>
       <c r="R7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3793,19 +3644,19 @@
       </c>
       <c r="S7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V7" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3820,7 +3671,7 @@
         <v/>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="AB7" s="13" t="s">
         <v>11</v>
@@ -3833,7 +3684,7 @@
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>;</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3845,31 +3696,31 @@
       </c>
       <c r="D8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>E</v>
       </c>
       <c r="F8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="G8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="J8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="K8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3881,11 +3732,11 @@
       </c>
       <c r="M8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="O8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3893,11 +3744,11 @@
       </c>
       <c r="P8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="R8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3905,19 +3756,19 @@
       </c>
       <c r="S8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V8" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -3932,7 +3783,7 @@
         <v/>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>12</v>
@@ -3945,19 +3796,19 @@
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>;</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3977,11 +3828,11 @@
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>K</v>
       </c>
       <c r="J9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v>#</v>
       </c>
       <c r="K9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -3993,7 +3844,7 @@
       </c>
       <c r="M9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4013,23 +3864,23 @@
       </c>
       <c r="R9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="T9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V9" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4044,7 +3895,7 @@
         <v/>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="AB9" s="13" t="s">
         <v>13</v>
@@ -4057,19 +3908,19 @@
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>;</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>;</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4089,15 +3940,15 @@
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4105,7 +3956,7 @@
       </c>
       <c r="M10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4121,27 +3972,27 @@
       </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v>#</v>
       </c>
       <c r="T10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V10" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -4156,7 +4007,7 @@
         <v/>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="AB10" s="13" t="s">
         <v>14</v>
@@ -4169,19 +4020,19 @@
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>j</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4197,27 +4048,27 @@
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>q</v>
       </c>
       <c r="J11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>+</v>
+        <v>#</v>
       </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4233,27 +4084,27 @@
       </c>
       <c r="Q11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>;</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>b</v>
       </c>
       <c r="S11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>?</v>
+        <v>#</v>
       </c>
       <c r="T11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U11" s="5" t="str">
         <f t="shared" ref="U11:Y20" si="4">MID($AA11,COLUMN()+1,1)</f>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V11" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W11" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4268,7 +4119,7 @@
         <v/>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AB11" s="13" t="s">
         <v>13</v>
@@ -4281,47 +4132,47 @@
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="F12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>E</v>
       </c>
       <c r="G12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="J12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4329,43 +4180,43 @@
       </c>
       <c r="M12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="O12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="P12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v>#</v>
       </c>
       <c r="R12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="S12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v>#</v>
       </c>
       <c r="T12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V12" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W12" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4380,7 +4231,7 @@
         <v/>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="13" t="s">
         <v>15</v>
@@ -4393,23 +4244,23 @@
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>Q</v>
       </c>
       <c r="F13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4421,19 +4272,19 @@
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>D</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4461,23 +4312,23 @@
       </c>
       <c r="R13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>(</v>
+        <v>q</v>
       </c>
       <c r="S13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="T13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V13" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W13" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4492,7 +4343,7 @@
         <v/>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="13" t="s">
         <v>16</v>
@@ -4505,7 +4356,7 @@
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>A</v>
       </c>
       <c r="B14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4513,19 +4364,19 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>B</v>
       </c>
       <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4533,7 +4384,7 @@
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -4561,11 +4412,11 @@
       </c>
       <c r="O14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Q14" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4577,19 +4428,19 @@
       </c>
       <c r="S14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T14" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W14" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4604,7 +4455,7 @@
         <v/>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="13" t="s">
         <v>17</v>
@@ -4617,27 +4468,27 @@
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="B15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="D15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>(</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="F15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>)</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G15" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4645,39 +4496,39 @@
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="J15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="K15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="L15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="M15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="N15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="O15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>(</v>
+        <v>#</v>
       </c>
       <c r="P15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>)</v>
+        <v>#</v>
       </c>
       <c r="Q15" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4689,19 +4540,19 @@
       </c>
       <c r="S15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T15" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U15" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V15" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W15" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4716,7 +4567,7 @@
         <v/>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="AB15" s="13" t="s">
         <v>18</v>
@@ -4729,7 +4580,7 @@
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>Q</v>
       </c>
       <c r="B16" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4741,7 +4592,7 @@
       </c>
       <c r="D16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4757,11 +4608,11 @@
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>q</v>
       </c>
       <c r="J16" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4785,11 +4636,11 @@
       </c>
       <c r="O16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>b</v>
       </c>
       <c r="P16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q16" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4801,19 +4652,19 @@
       </c>
       <c r="S16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="T16" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V16" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W16" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4828,7 +4679,7 @@
         <v/>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="AB16" s="13" t="s">
         <v>19</v>
@@ -4841,11 +4692,11 @@
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4853,7 +4704,7 @@
       </c>
       <c r="D17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4869,11 +4720,11 @@
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4881,11 +4732,11 @@
       </c>
       <c r="K17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>k</v>
       </c>
       <c r="M17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4901,7 +4752,7 @@
       </c>
       <c r="P17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q17" s="5" t="str">
         <f t="shared" si="5"/>
@@ -4913,19 +4764,19 @@
       </c>
       <c r="S17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v>#</v>
       </c>
       <c r="T17" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U17" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V17" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W17" s="5" t="str">
         <f t="shared" si="4"/>
@@ -4940,7 +4791,7 @@
         <v/>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="AB17" s="13" t="s">
         <v>20</v>
@@ -4953,19 +4804,19 @@
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4977,15 +4828,15 @@
       </c>
       <c r="G18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="J18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -4993,15 +4844,15 @@
       </c>
       <c r="K18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>\</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -5013,7 +4864,7 @@
       </c>
       <c r="P18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>D</v>
       </c>
       <c r="Q18" s="5" t="str">
         <f t="shared" si="5"/>
@@ -5021,23 +4872,23 @@
       </c>
       <c r="R18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>/</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="T18" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W18" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5052,7 +4903,7 @@
         <v/>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>21</v>
@@ -5065,19 +4916,19 @@
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>z</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>B</v>
+        <v>#</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="2"/>
@@ -5085,39 +4936,39 @@
       </c>
       <c r="F19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>=</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="G19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>K</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>z</v>
+        <v>#</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>B</v>
       </c>
       <c r="J19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>j</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="L19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>z</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="N19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>Q</v>
       </c>
       <c r="O19" s="5" t="str">
         <f t="shared" si="2"/>
@@ -5125,31 +4976,31 @@
       </c>
       <c r="P19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
+        <v>#</v>
       </c>
       <c r="Q19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>B</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="R19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="S19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>z</v>
+        <v>#</v>
       </c>
       <c r="T19" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W19" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5164,7 +5015,7 @@
         <v/>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="AB19" s="13" t="s">
         <v>22</v>
@@ -5177,91 +5028,91 @@
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="B20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="D20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="F20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="G20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="J20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="K20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="L20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="M20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="N20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="O20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="P20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="Q20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="R20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="S20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v>#</v>
       </c>
       <c r="T20" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>:</v>
+        <v/>
       </c>
       <c r="U20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>'</v>
+        <v/>
       </c>
       <c r="V20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>,</v>
+        <v/>
       </c>
       <c r="W20" s="5" t="str">
         <f t="shared" si="4"/>
@@ -5276,7 +5127,7 @@
         <v/>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AB20" s="13" t="s">
         <v>23</v>
@@ -5449,12 +5300,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5481,64 +5332,64 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -5556,44 +5407,42 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M2" s="12"/>
       <c r="N2" s="12" t="s">
         <v>4</v>
       </c>
@@ -5604,16 +5453,16 @@
         <v>4</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -5621,17 +5470,17 @@
       <c r="X2" s="6"/>
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
-        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>#B    b#   #K   #u #</v>
+        <f t="shared" ref="AA2:AA20" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v>#B    b#  %#   #u #</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'#B    b#   #K   #u #',</v>
+        <v>'#B    b#  %#   #u #',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
@@ -5652,7 +5501,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>4</v>
@@ -5664,11 +5513,9 @@
         <v>4</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
         <v>4</v>
       </c>
@@ -5679,7 +5526,7 @@
         <v>4</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>4</v>
@@ -5688,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -5697,16 +5544,16 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>#      D   #    #  #</v>
+        <v>#      D   #   #  #</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'#      D   #    #  #',</v>
+        <v>'#      D   #   #  #',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -5724,10 +5571,10 @@
         <v>4</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>4</v>
@@ -5739,11 +5586,9 @@
         <v>4</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M4" s="12"/>
       <c r="N4" s="12" t="s">
         <v>4</v>
       </c>
@@ -5754,7 +5599,7 @@
         <v>4</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>4</v>
@@ -5763,7 +5608,7 @@
         <v>4</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -5772,28 +5617,28 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v>#     b#   #    @  #</v>
+        <v>#     b#   #   @  #</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>'#     b#   #    @  #',</v>
+        <v>'#     b#   #   @  #',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>4</v>
@@ -5802,7 +5647,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>4</v>
@@ -5814,11 +5659,9 @@
         <v>4</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>4</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="M5" s="12"/>
       <c r="N5" s="12" t="s">
         <v>4</v>
       </c>
@@ -5829,16 +5672,16 @@
         <v>4</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -5847,16 +5690,16 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>#@###  #   @    ##E#</v>
+        <v>#@###  #   @   ##E#</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'#@###  #   @    ##E#',</v>
+        <v>'#@###  #   @   ##E#',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
@@ -5865,10 +5708,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>4</v>
@@ -5877,7 +5720,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>4</v>
@@ -5886,10 +5729,10 @@
         <v>4</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M6" s="12" t="s">
         <v>4</v>
@@ -5904,7 +5747,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>4</v>
@@ -5913,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -5931,7 +5774,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>4</v>
@@ -5943,7 +5786,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>4</v>
@@ -5952,7 +5795,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>4</v>
@@ -5961,7 +5804,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>4</v>
@@ -5973,22 +5816,22 @@
         <v>4</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="S7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -5997,16 +5840,16 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>#   #  @  #   B #  #</v>
+        <v>#   #  @  #   B #Q #</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #  @  #   B #  #',</v>
+        <v>'#   #  @  #   B #Q #',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -6018,25 +5861,25 @@
         <v>4</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>4</v>
@@ -6045,25 +5888,25 @@
         <v>4</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -6081,7 +5924,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>4</v>
@@ -6093,7 +5936,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>4</v>
@@ -6108,10 +5951,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>4</v>
@@ -6120,7 +5963,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O9" s="12" t="s">
         <v>4</v>
@@ -6138,7 +5981,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -6156,7 +5999,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>4</v>
@@ -6168,7 +6011,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>4</v>
@@ -6186,7 +6029,7 @@
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>4</v>
@@ -6195,7 +6038,7 @@
         <v>4</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O10" s="12" t="s">
         <v>4</v>
@@ -6213,7 +6056,7 @@
         <v>4</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -6231,7 +6074,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>4</v>
@@ -6243,7 +6086,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>4</v>
@@ -6258,10 +6101,10 @@
         <v>4</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>4</v>
@@ -6270,7 +6113,7 @@
         <v>4</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O11" s="12" t="s">
         <v>4</v>
@@ -6285,10 +6128,10 @@
         <v>4</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -6297,16 +6140,16 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>#   #     #  #    b#</v>
+        <v>#   #    q#  #    b#</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #     #  #    b#',</v>
+        <v>'#   #    q#  #    b#',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>4</v>
@@ -6318,25 +6161,25 @@
         <v>4</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>4</v>
@@ -6345,25 +6188,25 @@
         <v>4</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -6381,7 +6224,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>4</v>
@@ -6393,10 +6236,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>4</v>
@@ -6405,7 +6248,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>4</v>
@@ -6435,10 +6278,10 @@
         <v>4</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -6447,28 +6290,28 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v>#   #   #          #</v>
+        <v>#   #Q  #         q#</v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #   #          #',</v>
+        <v>'#   #Q  #         q#',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>4</v>
@@ -6480,7 +6323,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>4</v>
@@ -6513,7 +6356,7 @@
         <v>4</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -6531,19 +6374,19 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>4</v>
@@ -6555,31 +6398,31 @@
         <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>4</v>
@@ -6588,7 +6431,7 @@
         <v>4</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -6606,10 +6449,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>4</v>
@@ -6618,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>4</v>
@@ -6630,10 +6473,10 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>4</v>
@@ -6651,10 +6494,10 @@
         <v>4</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>4</v>
@@ -6663,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -6672,16 +6515,16 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v>#   #   #      b#  #</v>
+        <v>#Q  #   #q     b#  #</v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #   #      b#  #',</v>
+        <v>'#Q  #   #q     b#  #',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>4</v>
@@ -6693,7 +6536,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>4</v>
@@ -6705,7 +6548,7 @@
         <v>4</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>4</v>
@@ -6717,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>4</v>
@@ -6729,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="R17" s="12" t="s">
         <v>4</v>
@@ -6738,7 +6581,7 @@
         <v>4</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -6747,16 +6590,16 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v>#   D   D          #</v>
+        <v>#   D   D   k   #  #</v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>'#   D   D          #',</v>
+        <v>'#   D   D   k   #  #',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>4</v>
@@ -6768,7 +6611,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>4</v>
@@ -6780,7 +6623,7 @@
         <v>4</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J18" s="12" t="s">
         <v>4</v>
@@ -6804,7 +6647,7 @@
         <v>4</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="R18" s="12" t="s">
         <v>4</v>
@@ -6813,7 +6656,7 @@
         <v>4</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -6822,16 +6665,16 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v>#   #   #          #</v>
+        <v>#   #   #       D  #</v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #   #          #',</v>
+        <v>'#   #   #       D  #',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>4</v>
@@ -6843,7 +6686,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>4</v>
@@ -6852,13 +6695,13 @@
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>4</v>
@@ -6873,13 +6716,13 @@
         <v>4</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R19" s="12" t="s">
         <v>4</v>
@@ -6888,7 +6731,7 @@
         <v>4</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -6897,73 +6740,73 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v>#   #  K#B      #  #</v>
+        <v>#   #  K#B    Q #  #</v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>'#   #  K#B      #  #',</v>
+        <v>'#   #  K#B    Q #  #',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -7006,7 +6849,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="7"/>
       <c r="AA21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA21:AA25" si="2">CONCATENATE(A21,B21,C21,D21,E21,F21,G21,H21,I21,J21,K21,L21,M21,N21,O21,P21,Q21,R21,S21,T21,U21,V21,W21,X21,Y21)</f>
         <v/>
       </c>
       <c r="AB21" t="str">
@@ -7041,7 +6884,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
       <c r="AA22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB22" t="str">
@@ -7076,7 +6919,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="7"/>
       <c r="AA23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB23" t="str">
@@ -7111,7 +6954,7 @@
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
       <c r="AA24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB24" t="str">
@@ -7146,7 +6989,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="11"/>
       <c r="AA25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AB25" t="str">
@@ -7182,22 +7025,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="33" priority="4">
+    <cfRule type="expression" dxfId="35" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="31" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7211,7 +7054,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7224,64 +7067,64 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -7299,64 +7142,64 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -7365,73 +7208,73 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v>FFFFFFFFF  FFF  FFFF</v>
+        <v>FFFFFFFFFFFFFFFFFFFF</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'FFFFFFFFF  FFF  FFFF',</v>
+        <v>'FFFFFFFFFFFFFFFFFFFF',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -7440,73 +7283,73 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>FFFFFFFFFF FFF  FFFF</v>
+        <v>FFFFFFFFFFFFFFFFFFFF</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>'FFFFFFFFFF FFF  FFFF',</v>
+        <v>'FFFFFFFFFFFFFFFFFFFF',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -7524,64 +7367,64 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -7599,64 +7442,64 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -7674,64 +7517,64 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -7749,64 +7592,64 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -7824,64 +7667,64 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -7890,73 +7733,73 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>FFFFFFFFFFFFFF FFFFF</v>
+        <v>FFFFFFFFFFFFFFFFFFFF</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>'FFFFFFFFFFFFFF FFFFF',</v>
+        <v>'FFFFFFFFFFFFFFFFFFFF',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -7965,73 +7808,73 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>FFFFFFFFFFFFFF FFFFF</v>
+        <v>FFFFFFFFFFFFFFFFFFFF</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'FFFFFFFFFFFFFF FFFFF',</v>
+        <v>'FFFFFFFFFFFFFFFFFFFF',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -8049,64 +7892,64 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -8124,64 +7967,64 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
@@ -8199,64 +8042,64 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -8274,64 +8117,64 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
@@ -8349,64 +8192,64 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
@@ -8424,64 +8267,64 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
@@ -8499,7 +8342,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>4</v>
@@ -8508,55 +8351,55 @@
         <v>4</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
@@ -8574,7 +8417,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>4</v>
@@ -8583,55 +8426,55 @@
         <v>4</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
@@ -8649,64 +8492,64 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
@@ -8925,22 +8768,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="29" priority="4">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="27" priority="2">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8994,37 +8837,37 @@
         <v>4</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -9069,10 +8912,10 @@
         <v>4</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>4</v>
@@ -9087,7 +8930,7 @@
         <v>4</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="12" t="s">
         <v>4</v>
@@ -9096,10 +8939,10 @@
         <v>4</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -9108,11 +8951,11 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">         #u    #   #</v>
+        <v xml:space="preserve">         #     #  C#</v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'         #u    #   #',</v>
+        <v>'         #     #  C#',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -9144,7 +8987,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
@@ -9162,7 +9005,7 @@
         <v>4</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>4</v>
@@ -9174,7 +9017,7 @@
         <v>4</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -9219,7 +9062,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
@@ -9237,7 +9080,7 @@
         <v>4</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>4</v>
@@ -9249,7 +9092,7 @@
         <v>4</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -9294,7 +9137,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -9312,7 +9155,7 @@
         <v>4</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>4</v>
@@ -9324,7 +9167,7 @@
         <v>4</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -10017,10 +9860,10 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>4</v>
@@ -10032,25 +9875,25 @@
         <v>4</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>4</v>
@@ -10083,38 +9926,38 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">::    :   ::        </v>
+        <v xml:space="preserve">:B   B:::E::        </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'::    :   ::        ',</v>
+        <v>':B   B:::E::        ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="I16" s="12" t="s">
         <v>4</v>
       </c>
@@ -10125,7 +9968,7 @@
         <v>4</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>4</v>
@@ -10158,16 +10001,16 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">:     :    :        </v>
+        <v xml:space="preserve">:     :C   :        </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>':     :    :        ',</v>
+        <v>':     :C   :        ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>4</v>
@@ -10185,7 +10028,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>4</v>
@@ -10200,7 +10043,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M17" s="12" t="s">
         <v>4</v>
@@ -10242,7 +10085,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>4</v>
@@ -10260,7 +10103,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>4</v>
@@ -10275,7 +10118,7 @@
         <v>4</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M18" s="12" t="s">
         <v>4</v>
@@ -10317,40 +10160,40 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>4</v>
-      </c>
       <c r="I19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>4</v>
@@ -10383,49 +10226,49 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">:    S:    :        </v>
+        <v xml:space="preserve">:q   S:C c :        </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>':    S:    :        ',</v>
+        <v>':q   S:C c :        ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>4</v>
@@ -10668,22 +10511,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="27" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10815,31 +10658,31 @@
         <v>4</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>4</v>
@@ -10890,31 +10733,31 @@
         <v>4</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>4</v>
@@ -10965,31 +10808,31 @@
         <v>4</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>4</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>4</v>
@@ -11838,34 +11681,34 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>4</v>
@@ -11901,11 +11744,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!!              </v>
+        <v xml:space="preserve"> !!!!! !!!!         </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!!              ',</v>
+        <v>' !!!!! !!!!         ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -11913,34 +11756,34 @@
         <v>4</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>4</v>
@@ -11976,11 +11819,11 @@
       <c r="Y17" s="7"/>
       <c r="AA17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!!              </v>
+        <v xml:space="preserve"> !!!!! !!!!         </v>
       </c>
       <c r="AB17" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!!              ',</v>
+        <v>' !!!!! !!!!         ',</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -11988,34 +11831,34 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>4</v>
@@ -12051,11 +11894,11 @@
       <c r="Y18" s="7"/>
       <c r="AA18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!!              </v>
+        <v xml:space="preserve"> !!!!! !!!!         </v>
       </c>
       <c r="AB18" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!!              ',</v>
+        <v>' !!!!! !!!!         ',</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -12063,34 +11906,34 @@
         <v>4</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>4</v>
@@ -12126,11 +11969,11 @@
       <c r="Y19" s="7"/>
       <c r="AA19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!!              </v>
+        <v xml:space="preserve"> !!!!! !!!!         </v>
       </c>
       <c r="AB19" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!!              ',</v>
+        <v>' !!!!! !!!!         ',</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
@@ -12411,22 +12254,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="19" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12453,64 +12296,64 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="T1" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -12519,19 +12362,19 @@
       <c r="Y1" s="3"/>
       <c r="AA1" t="str">
         <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
-        <v>;;;;;    :::::::::::</v>
+        <v>b;;b;;;;;b:::::::::b</v>
       </c>
       <c r="AB1" t="str">
         <f>"'"&amp;AA1&amp;"',"</f>
-        <v>';;;;;    :::::::::::',</v>
+        <v>'b;;b;;;;;b:::::::::b',</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
@@ -12555,7 +12398,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
@@ -12579,13 +12422,13 @@
         <v>4</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
@@ -12603,7 +12446,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
@@ -12630,7 +12473,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
@@ -12660,7 +12503,7 @@
         <v>4</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
@@ -12669,16 +12512,16 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v>;                  :</v>
+        <v>;        :         :</v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>';                  :',</v>
+        <v>';        :         :',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -12705,7 +12548,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
@@ -12735,7 +12578,7 @@
         <v>4</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
@@ -12744,16 +12587,16 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;                   </v>
+        <v>b        b         b</v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>';                   ',</v>
+        <v>'b        b         b',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -12780,7 +12623,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -12810,7 +12653,7 @@
         <v>4</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
@@ -12819,16 +12662,16 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;                   </v>
+        <v>;        :         :</v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>';                   ',</v>
+        <v>';        :         :',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
@@ -12855,7 +12698,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>4</v>
@@ -12885,7 +12728,7 @@
         <v>4</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -12894,16 +12737,16 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;                   </v>
+        <v>;        :         :</v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>';                   ',</v>
+        <v>';        :         :',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>4</v>
@@ -12930,7 +12773,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
@@ -12960,7 +12803,7 @@
         <v>4</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -12969,16 +12812,16 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;                   </v>
+        <v>;        b         b</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>';                   ',</v>
+        <v>';        b         b',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>4</v>
@@ -13005,7 +12848,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>4</v>
@@ -13035,7 +12878,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
@@ -13053,7 +12896,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>4</v>
@@ -13068,7 +12911,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>4</v>
@@ -13080,7 +12923,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>4</v>
@@ -13110,7 +12953,7 @@
         <v>4</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
@@ -13119,16 +12962,16 @@
       <c r="Y9" s="7"/>
       <c r="AA9" t="str">
         <f t="shared" si="0"/>
-        <v>;        :         :</v>
+        <v>;    ;   :         :</v>
       </c>
       <c r="AB9" t="str">
         <f t="shared" si="1"/>
-        <v>';        :         :',</v>
+        <v>';    ;   :         :',</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>4</v>
@@ -13143,7 +12986,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>4</v>
@@ -13155,13 +12998,13 @@
         <v>4</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="M10" s="12" t="s">
         <v>4</v>
@@ -13179,13 +13022,13 @@
         <v>4</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -13194,19 +13037,19 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>;        :        S:</v>
+        <v>;    ;   :QB     BS:</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>';        :        S:',</v>
+        <v>';    ;   :QB     BS:',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>4</v>
@@ -13215,52 +13058,52 @@
         <v>4</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -13269,16 +13112,16 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v>;    ;;;;:::::::::::</v>
+        <v>b;  ;b;;;b:::::::::b</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>';    ;;;;:::::::::::',</v>
+        <v>'b;  ;b;;;b:::::::::b',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>4</v>
@@ -13290,10 +13133,10 @@
         <v>4</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>4</v>
@@ -13344,19 +13187,19 @@
       <c r="Y12" s="7"/>
       <c r="AA12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;    ;              </v>
+        <v xml:space="preserve">;   K;              </v>
       </c>
       <c r="AB12" t="str">
         <f t="shared" si="1"/>
-        <v>';    ;              ',</v>
+        <v>';   K;              ',</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>4</v>
@@ -13368,7 +13211,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>4</v>
@@ -13419,19 +13262,19 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;    ;              </v>
+        <v xml:space="preserve">;q   ;              </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>';    ;              ',</v>
+        <v>';q   ;              ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
@@ -13440,10 +13283,10 @@
         <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>4</v>
@@ -13494,11 +13337,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">;;  ;;              </v>
+        <v xml:space="preserve">;;   ;              </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>';;  ;;              ',</v>
+        <v>';;   ;              ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -13506,7 +13349,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>4</v>
@@ -13518,7 +13361,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>4</v>
@@ -13569,11 +13412,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> ;   ;              </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' ;   ;              ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -14154,22 +13997,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="17" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="15" priority="2">
+    <cfRule type="expression" dxfId="17" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14183,7 +14026,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14274,13 +14117,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>4</v>
@@ -14301,31 +14144,31 @@
         <v>4</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>4</v>
@@ -14349,13 +14192,13 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>4</v>
@@ -14394,13 +14237,13 @@
         <v>4</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>4</v>
@@ -14424,13 +14267,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>4</v>
@@ -14499,13 +14342,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>4</v>
@@ -14574,13 +14417,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>4</v>
@@ -14751,31 +14594,31 @@
         <v>4</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>4</v>
@@ -14826,31 +14669,31 @@
         <v>4</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>4</v>
@@ -14901,31 +14744,31 @@
         <v>4</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>4</v>
@@ -15024,16 +14867,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>4</v>
@@ -15099,16 +14942,16 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>4</v>
@@ -15177,13 +15020,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>4</v>
@@ -15237,11 +15080,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  **                </v>
+        <v xml:space="preserve">  ***               </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'  **                ',</v>
+        <v>'  ***               ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -15252,13 +15095,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>4</v>
@@ -15312,11 +15155,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  **                </v>
+        <v xml:space="preserve">  ***               </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'  **                ',</v>
+        <v>'  ***               ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -15897,22 +15740,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="13" priority="4">
+    <cfRule type="expression" dxfId="15" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="13" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15939,34 +15782,34 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>4</v>
@@ -16014,10 +15857,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>4</v>
@@ -16038,10 +15881,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>4</v>
@@ -16080,16 +15923,16 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve">#U       #          </v>
+        <v xml:space="preserve">#U      K#          </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>'#U       #          ',</v>
+        <v>'#U      K#          ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>4</v>
@@ -16116,7 +15959,7 @@
         <v>4</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>4</v>
@@ -16164,7 +16007,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>4</v>
@@ -16191,7 +16034,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>4</v>
@@ -16239,7 +16082,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -16266,7 +16109,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>4</v>
@@ -16341,7 +16184,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>4</v>
@@ -16413,10 +16256,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>4</v>
@@ -16455,11 +16298,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        ##          </v>
+        <v xml:space="preserve">        S#          </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'        ##          ',</v>
+        <v>'        S#          ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -16488,10 +16331,10 @@
         <v>4</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>4</v>
@@ -17640,22 +17483,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="11" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17760,28 +17603,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>4</v>
@@ -17823,11 +17666,11 @@
       <c r="Y2" s="7"/>
       <c r="AA2" t="str">
         <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
-        <v xml:space="preserve"> !!!!               </v>
+        <v xml:space="preserve"> !!!!!!!!           </v>
       </c>
       <c r="AB2" t="str">
         <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
-        <v>' !!!!               ',</v>
+        <v>' !!!!!!!!           ',</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
@@ -17835,16 +17678,16 @@
         <v>4</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>4</v>
@@ -17856,7 +17699,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>4</v>
@@ -17898,11 +17741,11 @@
       <c r="Y3" s="7"/>
       <c r="AA3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!               </v>
+        <v xml:space="preserve"> !!!!   !           </v>
       </c>
       <c r="AB3" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!               ',</v>
+        <v>' !!!!   !           ',</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -17910,16 +17753,16 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>4</v>
@@ -17931,7 +17774,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>4</v>
@@ -17973,11 +17816,11 @@
       <c r="Y4" s="7"/>
       <c r="AA4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> !!!!               </v>
+        <v xml:space="preserve"> !!!!   !           </v>
       </c>
       <c r="AB4" t="str">
         <f t="shared" si="1"/>
-        <v>' !!!!               ',</v>
+        <v>' !!!!   !           ',</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -18006,7 +17849,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>4</v>
@@ -18048,11 +17891,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        !           </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        !           ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -18081,7 +17924,7 @@
         <v>4</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>4</v>
@@ -18123,11 +17966,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        !           </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        !           ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -18156,7 +17999,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>4</v>
@@ -18198,11 +18041,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">        !           </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'        !           ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">

--- a/darkworld/model/data/floor builder Dungeon World 2.xlsx
+++ b/darkworld/model/data/floor builder Dungeon World 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\DarkWorld\darkworld\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF5D7D6-0407-4B50-B800-C9D19EFC35A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28B84A6-66D4-4340-B911-94063B968296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22290" yWindow="2010" windowWidth="25065" windowHeight="15840" tabRatio="904" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17925" yWindow="2295" windowWidth="17370" windowHeight="15840" tabRatio="904" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="49" r:id="rId1"/>
@@ -22,7 +22,11 @@
     <sheet name="Dungeon1-6" sheetId="136" r:id="rId7"/>
     <sheet name="Dungeon1-7" sheetId="139" r:id="rId8"/>
     <sheet name="Dungeon1-8" sheetId="138" r:id="rId9"/>
-    <sheet name="Reverser" sheetId="33" r:id="rId10"/>
+    <sheet name="Dungeon 2-1" sheetId="142" r:id="rId10"/>
+    <sheet name="Dungeon 2-2" sheetId="143" r:id="rId11"/>
+    <sheet name="Dungeon2-3" sheetId="144" r:id="rId12"/>
+    <sheet name="Dungeon2-4" sheetId="145" r:id="rId13"/>
+    <sheet name="Reverser" sheetId="33" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5292" uniqueCount="69">
   <si>
     <t>width</t>
   </si>
@@ -454,6 +458,9 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
 </sst>
 </file>
 
@@ -607,7 +614,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2867,12 +2916,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="37" priority="2">
+    <cfRule type="expression" dxfId="43" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="36" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2882,6 +2931,6938 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30439A0C-B9B0-4751-993E-75FEF8030A87}">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v>b#b######bb######b#b</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'b#b######bb######b#b',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v># #      bb      #%#</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'# #      bb      #%#',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v>b #              # b</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>'b #              # b',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v>#                  #</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>'#                  #',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v>#                  #</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>'#                  #',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v>#    B:  :B:::B    #</v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    B:  :B:::B    #',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v>#    :    :   :    #</v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    :    :   :    #',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v>#    :    :        #</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    :    :        #',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v>#    :   a:        #</v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    :   a:        #',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v>bb   B:::::K  :   bb</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>'bb   B:::::K  :   bb',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v>bb   :  c:::::B   bb</v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'bb   :  c:::::B   bb',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v>#        :C   :    #</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>'#        :C   :    #',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v>#        :    :    #</v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>'#        :    :    #',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v>#    :   :    :    #</v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    :   :    :    #',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v>#    B:::B:  :B    #</v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>'#    B:::B:  :B    #',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v>#                  #</v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>'#                  #',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v>#                  #</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>'#                  #',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v>b##              ##b</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'b##              ##b',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v>#        bb       %#</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'#        bb       %#',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v>b#b######bb######b#b</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'b#b######bb######b#b',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z25">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A4D200-7619-45D4-A0E3-5A5554C1D5D6}">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve"> FFFFFFFF  FFFFFFFF </v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>' FFFFFFFF  FFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFF FFFF     FFFF </v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFF FFFF     FFFF ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFF FFFF FFFFFFFF </v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFF FFFF FFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFF FFFF FFFFFFFF </v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFF FFFF FFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFF FFFF FFFFFFFF </v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFF FFFF FFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  FFF      FFFFFFF  </v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>'  FFF      FFFFFFF  ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  FFFFFFF      FFF  </v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'  FFFFFFF      FFF  ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFF FFFF FFFF </v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFF FFFF FFFF ',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFF FFFF FFFF </v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFF FFFF FFFF ',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFF FFFF FFFF </v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFF FFFF FFFF ',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFF     FFFF FFFF </v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFF     FFFF FFFF ',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFFFFFFFFFFFF </v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFFFFFFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> FFFFFFFF  FFFFFFFF </v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>' FFFFFFFF  FFFFFFFF ',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z25">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825B711F-8431-45F9-9EFA-8D3F8CAFCC7B}">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">                b##b</v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'                b##b',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve">                   #</v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'                   #',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   #</v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   #',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   b</v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   b',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   b</v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   b',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   #</v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   #',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                   #</v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'                   #',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                b##b</v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'                b##b',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z25">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA683F49-E078-4C56-B3A6-CBE0694D475D}">
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="3"/>
+      <c r="AA1" t="str">
+        <f>CONCATENATE(A1,B1,C1,D1,E1,F1,G1,H1,I1,J1,K1,L1,M1,N1,O1,P1,Q1,R1,S1,T1,U1,V1,W1,X1,Y1)</f>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB1" t="str">
+        <f>"'"&amp;AA1&amp;"',"</f>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="0">CONCATENATE(A2,B2,C2,D2,E2,F2,G2,H2,I2,J2,K2,L2,M2,N2,O2,P2,Q2,R2,S2,T2,U2,V2,W2,X2,Y2)</f>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB2" t="str">
+        <f t="shared" ref="AB2:AB25" si="1">"'"&amp;AA2&amp;"',"</f>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB4" t="str">
+        <f t="shared" si="1"/>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="7"/>
+      <c r="AA5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="7"/>
+      <c r="AA6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB6" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="7"/>
+      <c r="AA7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB7" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="7"/>
+      <c r="AA8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="7"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB9" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="7"/>
+      <c r="AA10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="7"/>
+      <c r="AA11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB11" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="7"/>
+      <c r="AA12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB13" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB14" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="AA15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB15" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="AA16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB16" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="AA17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB17" t="str">
+        <f t="shared" si="1"/>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB18" t="str">
+        <f t="shared" si="1"/>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                *** </v>
+      </c>
+      <c r="AB19" t="str">
+        <f t="shared" si="1"/>
+        <v>'                *** ',</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="AA20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">                    </v>
+      </c>
+      <c r="AB20" t="str">
+        <f t="shared" si="1"/>
+        <v>'                    ',</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="7"/>
+      <c r="AA21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB21" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7"/>
+      <c r="AA22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB22" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="7"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB23" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="7"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="11"/>
+      <c r="AA25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <f t="shared" si="1"/>
+        <v>'',</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:Y25">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:Z25">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>":"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF30"/>
   <sheetViews>
@@ -5300,12 +12281,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:Y25">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z25">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7025,22 +14006,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="35" priority="4">
+    <cfRule type="expression" dxfId="41" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="34" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="39" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="32" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8768,22 +15749,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="37" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="30" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="29" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="28" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10511,22 +17492,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="27" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="26" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="25" priority="2">
+    <cfRule type="expression" dxfId="31" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="24" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12254,22 +19235,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="23" priority="4">
+    <cfRule type="expression" dxfId="29" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="22" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="27" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="20" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13997,22 +20978,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="18" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="17" priority="2">
+    <cfRule type="expression" dxfId="23" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="16" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14025,7 +21006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CCC18D-E30D-44F5-B41F-4490F324AAEC}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -15740,22 +22721,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="15" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="14" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="13" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="12" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17483,22 +24464,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="11" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="15" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19226,22 +26207,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21:Y25 U1:Y20">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="13" priority="4">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:Z25 U1:Z20">
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>AND(COLUMN()&lt;=$B$26,ROW()&lt;=$B$27)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:T20">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" stopIfTrue="1" operator="equal">
       <formula>":"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/darkworld/model/data/floor builder Dungeon World 2.xlsx
+++ b/darkworld/model/data/floor builder Dungeon World 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\DarkWorld\darkworld\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CACF9FD-E30C-4D80-B657-FD723FC760B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F9CD3-085A-4670-9673-6334BF15CB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1560" windowWidth="22365" windowHeight="15840" tabRatio="904" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="1560" windowWidth="22365" windowHeight="15840" tabRatio="904" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="49" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="70">
   <si>
     <t>width</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>~</t>
   </si>
 </sst>
 </file>
@@ -3030,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30439A0C-B9B0-4751-993E-75FEF8030A87}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,7 +4040,7 @@
         <v>4</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J14" s="12" t="s">
         <v>30</v>
@@ -4085,11 +4082,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>#    :   :    :    #</v>
+        <v>#    :  K:    :    #</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'#    :   :    :    #',</v>
+        <v>'#    :  K:    :    #',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -6497,7 +6494,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>4</v>
@@ -6876,16 +6873,16 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">#                   </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'#                   ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>4</v>
@@ -6951,19 +6948,19 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">#                   </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'#                   ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -7026,11 +7023,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">b#                  </v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'b#                  ',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -7485,10 +7482,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>4</v>
@@ -7551,16 +7548,16 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">b#                  </v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'b#                  ',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>4</v>
@@ -7626,16 +7623,16 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">#                   </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'#                   ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>4</v>
@@ -7701,11 +7698,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">#                   </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'#                   ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -8230,7 +8227,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA20"/>
+      <selection activeCell="C5" sqref="C5:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8546,7 +8543,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>4</v>
@@ -8609,11 +8606,11 @@
       <c r="Y5" s="7"/>
       <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> *                  </v>
       </c>
       <c r="AB5" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' *                  ',</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
@@ -8621,7 +8618,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>4</v>
@@ -8684,11 +8681,11 @@
       <c r="Y6" s="7"/>
       <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> *                  </v>
       </c>
       <c r="AB6" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' *                  ',</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -9296,7 +9293,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>4</v>
@@ -9359,11 +9356,11 @@
       <c r="Y15" s="7"/>
       <c r="AA15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> *                  </v>
       </c>
       <c r="AB15" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' *                  ',</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -9371,13 +9368,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>4</v>
@@ -9434,11 +9431,11 @@
       <c r="Y16" s="7"/>
       <c r="AA16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve"> ***                </v>
       </c>
       <c r="AB16" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>' ***                ',</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -13429,7 +13426,7 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17583,7 +17580,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>4</v>
@@ -17649,16 +17646,16 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v>#                  k</v>
+        <v xml:space="preserve">                   k</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>'#                  k',</v>
+        <v>'                   k',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>4</v>
@@ -17724,11 +17721,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#                   </v>
+        <v xml:space="preserve">                    </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'#                   ',</v>
+        <v>'                    ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -17829,22 +17826,22 @@
         <v>26</v>
       </c>
       <c r="H13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>67</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>26</v>
@@ -17874,11 +17871,11 @@
       <c r="Y13" s="7"/>
       <c r="AA13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#   # #c     ##     </v>
+        <v xml:space="preserve">#   # #     c##     </v>
       </c>
       <c r="AB13" t="str">
         <f t="shared" si="1"/>
-        <v>'#   # #c     ##     ',</v>
+        <v>'#   # #     c##     ',</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -18627,8 +18624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE1C29-EB6B-4425-BBBF-BA7C396F9AF9}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19361,13 +19358,13 @@
         <v>24</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>24</v>
@@ -19382,11 +19379,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> FFFFFFFFFFFFFF~~~FF</v>
+        <v xml:space="preserve"> FFFFFFFFFFFFFF___FF</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>' FFFFFFFFFFFFFF~~~FF',</v>
+        <v>' FFFFFFFFFFFFFF___FF',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -19436,13 +19433,13 @@
         <v>24</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>24</v>
@@ -19457,11 +19454,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> FFFFFFFFFFFFFF~~~FF</v>
+        <v xml:space="preserve"> FFFFFFFFFFFFFF___FF</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>' FFFFFFFFFFFFFF~~~FF',</v>
+        <v>' FFFFFFFFFFFFFF___FF',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">

--- a/darkworld/model/data/floor builder Dungeon World 2.xlsx
+++ b/darkworld/model/data/floor builder Dungeon World 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\DarkWorld\darkworld\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F9CD3-085A-4670-9673-6334BF15CB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF95735-1E1F-4E76-B85C-5F35C1139319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11130" yWindow="1560" windowWidth="22365" windowHeight="15840" tabRatio="904" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11130" yWindow="1560" windowWidth="22365" windowHeight="15840" tabRatio="904" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="49" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="72">
   <si>
     <t>width</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30439A0C-B9B0-4751-993E-75FEF8030A87}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
@@ -4034,7 +4040,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>4</v>
@@ -4082,11 +4088,11 @@
       <c r="Y14" s="7"/>
       <c r="AA14" t="str">
         <f t="shared" si="0"/>
-        <v>#    :  K:    :    #</v>
+        <v>#    :o K:    :    #</v>
       </c>
       <c r="AB14" t="str">
         <f t="shared" si="1"/>
-        <v>'#    :  K:    :    #',</v>
+        <v>'#    :o K:    :    #',</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -17685,7 +17691,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>4</v>
@@ -17721,11 +17727,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">                    </v>
+        <v xml:space="preserve">          s         </v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>'                    ',</v>
+        <v>'          s         ',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -18624,8 +18630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE1C29-EB6B-4425-BBBF-BA7C396F9AF9}">
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19358,13 +19364,13 @@
         <v>24</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S10" s="12" t="s">
         <v>24</v>
@@ -19379,11 +19385,11 @@
       <c r="Y10" s="7"/>
       <c r="AA10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> FFFFFFFFFFFFFF___FF</v>
+        <v xml:space="preserve"> FFFFFFFFFFFFFF~~~FF</v>
       </c>
       <c r="AB10" t="str">
         <f t="shared" si="1"/>
-        <v>' FFFFFFFFFFFFFF___FF',</v>
+        <v>' FFFFFFFFFFFFFF~~~FF',</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
@@ -19433,13 +19439,13 @@
         <v>24</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="S11" s="12" t="s">
         <v>24</v>
@@ -19454,11 +19460,11 @@
       <c r="Y11" s="7"/>
       <c r="AA11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> FFFFFFFFFFFFFF___FF</v>
+        <v xml:space="preserve"> FFFFFFFFFFFFFF~~~FF</v>
       </c>
       <c r="AB11" t="str">
         <f t="shared" si="1"/>
-        <v>' FFFFFFFFFFFFFF___FF',</v>
+        <v>' FFFFFFFFFFFFFF~~~FF',</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">

--- a/darkworld/model/data/floor builder Dungeon World 2.xlsx
+++ b/darkworld/model/data/floor builder Dungeon World 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Development\Python\DarkWorld\darkworld\model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF95735-1E1F-4E76-B85C-5F35C1139319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201C1AD7-16BF-4F63-BCBD-AD9E766873F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11130" yWindow="1560" windowWidth="22365" windowHeight="15840" tabRatio="904" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7716" uniqueCount="73">
   <si>
     <t>width</t>
   </si>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3533,7 @@
         <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="M7" s="12" t="s">
         <v>4</v>
@@ -3563,11 +3566,11 @@
       <c r="Y7" s="7"/>
       <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>#    :    :   :    #</v>
+        <v>#    :    :g  :    #</v>
       </c>
       <c r="AB7" t="str">
         <f t="shared" si="1"/>
-        <v>'#    :    :   :    #',</v>
+        <v>'#    :    :g  :    #',</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
